--- a/ui-testsuite/src/main/resources/TestData/Order_Unassign_AMS_AssignmentRule.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_Unassign_AMS_AssignmentRule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Pipeline\Data test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Workspace\ui-test\ui-testsuite\src\main\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,9 +19,9 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$CA$2</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="131">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -391,31 +391,37 @@
     <t>84Z145987001-HPSW78</t>
   </si>
   <si>
-    <t>3e456r56t</t>
-  </si>
-  <si>
     <t>AMS</t>
   </si>
   <si>
-    <t>AR970001764</t>
-  </si>
-  <si>
     <t>ITOM</t>
   </si>
   <si>
     <t>ESP</t>
   </si>
   <si>
-    <t>AR970005708</t>
-  </si>
-  <si>
-    <t>AR970005709</t>
-  </si>
-  <si>
     <t>Solutions - IM</t>
   </si>
   <si>
     <t>I96</t>
+  </si>
+  <si>
+    <t>clkzhe5666327868</t>
+  </si>
+  <si>
+    <t>8018738398</t>
+  </si>
+  <si>
+    <t>8225370330</t>
+  </si>
+  <si>
+    <t>fjiexi6190827237</t>
+  </si>
+  <si>
+    <t>5520993908</t>
+  </si>
+  <si>
+    <t>0134198887</t>
   </si>
 </sst>
 </file>
@@ -425,7 +431,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -462,10 +468,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="6">
@@ -543,7 +548,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -609,7 +614,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,78 +899,78 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BD4" sqref="BD4:BD5"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="117.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="86.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="44.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="34.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="30.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="25.6640625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="28.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="35.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="37.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="19" style="1" customWidth="1"/>
-    <col min="46" max="47" width="19" style="2" customWidth="1"/>
-    <col min="48" max="52" width="19" style="1" customWidth="1"/>
-    <col min="53" max="53" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="64" max="66" width="23.5" style="13" customWidth="1"/>
-    <col min="67" max="70" width="22.33203125" style="2" customWidth="1"/>
-    <col min="71" max="71" width="23.5" style="2" customWidth="1"/>
-    <col min="72" max="72" width="23.5" style="1" customWidth="1"/>
-    <col min="73" max="73" width="23.5" style="2" customWidth="1"/>
-    <col min="74" max="74" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="16384" width="9.33203125" style="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="20.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="18.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="21.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="19.33203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="1" width="21.6640625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="1" width="21.6640625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="24.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="117.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="86.33203125" collapsed="true"/>
+    <col min="12" max="14" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="30.33203125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="25.83203125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="1" width="22.6640625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="1" width="44.33203125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="1" width="16.83203125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="1" width="37.5" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="1" width="30.0" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="1" width="30.83203125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="1" width="34.1640625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="1" width="21.83203125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="1" width="21.1640625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="1" width="18.1640625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="1" width="16.0" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="1" width="16.33203125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="1" width="23.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="1" width="25.0" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="1" width="30.83203125" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="1" width="22.1640625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="1" width="28.5" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="1" width="26.33203125" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="1" width="37.33203125" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="1" width="17.1640625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="1" width="25.6640625" collapsed="true"/>
+    <col min="38" max="38" bestFit="true" customWidth="true" style="1" width="27.0" collapsed="true"/>
+    <col min="39" max="39" bestFit="true" customWidth="true" style="1" width="28.5" collapsed="true"/>
+    <col min="40" max="40" bestFit="true" customWidth="true" style="1" width="35.5" collapsed="true"/>
+    <col min="41" max="41" bestFit="true" customWidth="true" style="1" width="37.1640625" collapsed="true"/>
+    <col min="42" max="42" bestFit="true" customWidth="true" style="1" width="20.6640625" collapsed="true"/>
+    <col min="43" max="43" bestFit="true" customWidth="true" style="1" width="16.6640625" collapsed="true"/>
+    <col min="44" max="44" bestFit="true" customWidth="true" style="1" width="20.83203125" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="46" max="47" customWidth="true" style="2" width="19.0" collapsed="true"/>
+    <col min="48" max="52" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="53" max="53" bestFit="true" customWidth="true" style="1" width="15.83203125" collapsed="true"/>
+    <col min="54" max="54" bestFit="true" customWidth="true" style="1" width="12.6640625" collapsed="true"/>
+    <col min="55" max="55" bestFit="true" customWidth="true" style="1" width="14.6640625" collapsed="true"/>
+    <col min="56" max="56" bestFit="true" customWidth="true" style="1" width="15.1640625" collapsed="true"/>
+    <col min="57" max="58" bestFit="true" customWidth="true" style="1" width="7.6640625" collapsed="true"/>
+    <col min="59" max="59" bestFit="true" customWidth="true" style="1" width="12.83203125" collapsed="true"/>
+    <col min="60" max="60" bestFit="true" customWidth="true" style="1" width="8.5" collapsed="true"/>
+    <col min="61" max="61" bestFit="true" customWidth="true" style="1" width="11.33203125" collapsed="true"/>
+    <col min="62" max="62" bestFit="true" customWidth="true" style="1" width="9.33203125" collapsed="true"/>
+    <col min="63" max="63" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="64" max="66" customWidth="true" style="13" width="23.5" collapsed="true"/>
+    <col min="67" max="70" customWidth="true" style="2" width="22.33203125" collapsed="true"/>
+    <col min="71" max="71" customWidth="true" style="2" width="23.5" collapsed="true"/>
+    <col min="72" max="72" customWidth="true" style="1" width="23.5" collapsed="true"/>
+    <col min="73" max="73" customWidth="true" style="2" width="23.5" collapsed="true"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" style="1" width="15.33203125" collapsed="true"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" style="1" width="9.1640625" collapsed="true"/>
+    <col min="76" max="76" bestFit="true" customWidth="true" style="1" width="13.1640625" collapsed="true"/>
+    <col min="77" max="77" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="78" max="78" bestFit="true" customWidth="true" style="1" width="16.33203125" collapsed="true"/>
+    <col min="79" max="79" bestFit="true" customWidth="true" style="1" width="19.0" collapsed="true"/>
+    <col min="80" max="16384" style="1" width="9.33203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:79" s="12" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
@@ -1222,7 +1226,7 @@
         <v>109</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>110</v>
@@ -1233,8 +1237,8 @@
       <c r="H2" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="I2" s="14">
-        <v>96666677</v>
+      <c r="I2" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>93</v>
@@ -1347,7 +1351,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX2" s="23" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AY2" s="20" t="s">
         <v>83</v>
@@ -1394,7 +1398,7 @@
         <v>86.734025547445256</v>
       </c>
       <c r="BO2" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BP2" s="20" t="s">
         <v>102</v>
@@ -1421,7 +1425,7 @@
       <c r="BZ2" s="17"/>
       <c r="CA2" s="17"/>
     </row>
-    <row r="3" spans="1:79" ht="12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>108</v>
       </c>
@@ -1434,8 +1438,8 @@
       <c r="D3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>125</v>
+      <c r="E3" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>110</v>
@@ -1446,8 +1450,8 @@
       <c r="H3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I3" s="14">
-        <v>96666677</v>
+      <c r="I3" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>93</v>
@@ -1555,7 +1559,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AY3" s="1" t="s">
         <v>83</v>
@@ -1573,7 +1577,7 @@
         <v>9</v>
       </c>
       <c r="BD3" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>86</v>
@@ -1600,7 +1604,7 @@
         <v>86.734025547445256</v>
       </c>
       <c r="BO3" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BP3" s="2" t="s">
         <v>102</v>
@@ -1621,7 +1625,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:79" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>108</v>
       </c>
@@ -1634,8 +1638,8 @@
       <c r="D4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="27" t="s">
-        <v>126</v>
+      <c r="E4" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>110</v>
@@ -1646,8 +1650,8 @@
       <c r="H4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I4" s="14">
-        <v>96666677</v>
+      <c r="I4" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>93</v>
@@ -1755,7 +1759,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>83</v>
@@ -1773,7 +1777,7 @@
         <v>9</v>
       </c>
       <c r="BD4" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="BG4" s="1" t="s">
         <v>86</v>
@@ -1800,7 +1804,7 @@
         <v>86.734025547445256</v>
       </c>
       <c r="BO4" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BP4" s="2" t="s">
         <v>102</v>
@@ -1835,7 +1839,7 @@
         <v>109</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>110</v>
@@ -1846,8 +1850,8 @@
       <c r="H5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I5" s="14">
-        <v>966666</v>
+      <c r="I5" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>93</v>
@@ -1955,7 +1959,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>83</v>
@@ -1973,7 +1977,7 @@
         <v>9</v>
       </c>
       <c r="BD5" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="BG5" s="1" t="s">
         <v>86</v>
@@ -2000,7 +2004,7 @@
         <v>86.734025547445256</v>
       </c>
       <c r="BO5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BP5" s="2" t="s">
         <v>102</v>
@@ -2035,7 +2039,7 @@
         <v>109</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>110</v>
@@ -2046,8 +2050,8 @@
       <c r="H6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I6" s="14">
-        <v>966666</v>
+      <c r="I6" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>93</v>
@@ -2155,7 +2159,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AY6" s="1" t="s">
         <v>83</v>
@@ -2173,7 +2177,7 @@
         <v>9</v>
       </c>
       <c r="BD6" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BG6" s="1" t="s">
         <v>86</v>
@@ -2200,7 +2204,7 @@
         <v>86.734025547445256</v>
       </c>
       <c r="BO6" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BP6" s="2" t="s">
         <v>102</v>
@@ -2235,7 +2239,7 @@
         <v>109</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>110</v>
@@ -2246,8 +2250,8 @@
       <c r="H7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I7" s="14">
-        <v>966666</v>
+      <c r="I7" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>93</v>
@@ -2355,7 +2359,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AY7" s="1" t="s">
         <v>83</v>
@@ -2373,7 +2377,7 @@
         <v>9</v>
       </c>
       <c r="BD7" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BG7" s="1" t="s">
         <v>86</v>
@@ -2400,7 +2404,7 @@
         <v>86.734025547445256</v>
       </c>
       <c r="BO7" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BP7" s="2" t="s">
         <v>102</v>
@@ -2435,7 +2439,7 @@
         <v>109</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>110</v>
@@ -2446,8 +2450,8 @@
       <c r="H8" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I8" s="14">
-        <v>966666</v>
+      <c r="I8" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>93</v>
@@ -2555,7 +2559,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>83</v>
@@ -2573,7 +2577,7 @@
         <v>9</v>
       </c>
       <c r="BD8" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BG8" s="1" t="s">
         <v>86</v>
@@ -2600,7 +2604,7 @@
         <v>86.734025547445256</v>
       </c>
       <c r="BO8" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BP8" s="2" t="s">
         <v>102</v>
@@ -2635,7 +2639,7 @@
         <v>109</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>110</v>
@@ -2646,8 +2650,8 @@
       <c r="H9" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="14">
-        <v>966666</v>
+      <c r="I9" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>93</v>
@@ -2701,7 +2705,7 @@
         <v>80</v>
       </c>
       <c r="AA9" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AB9" s="1" t="s">
         <v>91</v>
@@ -2755,7 +2759,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>83</v>
@@ -2773,7 +2777,7 @@
         <v>9</v>
       </c>
       <c r="BD9" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BG9" s="1" t="s">
         <v>86</v>
@@ -2800,7 +2804,7 @@
         <v>86.734025547445256</v>
       </c>
       <c r="BO9" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BP9" s="2" t="s">
         <v>102</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_Unassign_AMS_AssignmentRule.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_Unassign_AMS_AssignmentRule.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="137">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -422,6 +422,24 @@
   </si>
   <si>
     <t>0134198887</t>
+  </si>
+  <si>
+    <t>djyzws1713722123</t>
+  </si>
+  <si>
+    <t>4485374225</t>
+  </si>
+  <si>
+    <t>9944690460</t>
+  </si>
+  <si>
+    <t>gvyzju0775450798</t>
+  </si>
+  <si>
+    <t>3408065201</t>
+  </si>
+  <si>
+    <t>7459416161</t>
   </si>
 </sst>
 </file>
@@ -431,7 +449,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -466,6 +484,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1226,7 +1254,7 @@
         <v>109</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>110</v>
@@ -1238,7 +1266,7 @@
         <v>112</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>93</v>
@@ -1351,7 +1379,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX2" s="23" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AY2" s="20" t="s">
         <v>83</v>
@@ -1439,7 +1467,7 @@
         <v>109</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>110</v>
@@ -1451,7 +1479,7 @@
         <v>112</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>93</v>
@@ -1559,7 +1587,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AY3" s="1" t="s">
         <v>83</v>
@@ -1639,7 +1667,7 @@
         <v>109</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>110</v>
@@ -1651,7 +1679,7 @@
         <v>112</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>93</v>
@@ -1759,7 +1787,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>83</v>
@@ -1839,7 +1867,7 @@
         <v>109</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>110</v>
@@ -1851,7 +1879,7 @@
         <v>112</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>93</v>
@@ -1959,7 +1987,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>83</v>
@@ -2039,7 +2067,7 @@
         <v>109</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>110</v>
@@ -2051,7 +2079,7 @@
         <v>112</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>93</v>
@@ -2159,7 +2187,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AY6" s="1" t="s">
         <v>83</v>
@@ -2239,7 +2267,7 @@
         <v>109</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>110</v>
@@ -2251,7 +2279,7 @@
         <v>112</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>93</v>
@@ -2359,7 +2387,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AY7" s="1" t="s">
         <v>83</v>
@@ -2439,7 +2467,7 @@
         <v>109</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>110</v>
@@ -2451,7 +2479,7 @@
         <v>112</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>93</v>
@@ -2559,7 +2587,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>83</v>
@@ -2639,7 +2667,7 @@
         <v>109</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>110</v>
@@ -2651,7 +2679,7 @@
         <v>112</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>93</v>
@@ -2759,7 +2787,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>83</v>

--- a/ui-testsuite/src/main/resources/TestData/Order_Unassign_AMS_AssignmentRule.xlsx
+++ b/ui-testsuite/src/main/resources/TestData/Order_Unassign_AMS_AssignmentRule.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="143">
   <si>
     <t>Payer Customer Identifier</t>
   </si>
@@ -440,6 +440,24 @@
   </si>
   <si>
     <t>7459416161</t>
+  </si>
+  <si>
+    <t>fgehfj9134851440</t>
+  </si>
+  <si>
+    <t>0040946565</t>
+  </si>
+  <si>
+    <t>7913580293</t>
+  </si>
+  <si>
+    <t>dwxmja1500549326</t>
+  </si>
+  <si>
+    <t>2819379848</t>
+  </si>
+  <si>
+    <t>0958699954</t>
   </si>
 </sst>
 </file>
@@ -449,7 +467,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -484,6 +502,16 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="11.0"/>
+      <charset val="0"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -1254,7 +1282,7 @@
         <v>109</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>110</v>
@@ -1266,7 +1294,7 @@
         <v>112</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>93</v>
@@ -1379,7 +1407,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX2" s="23" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AY2" s="20" t="s">
         <v>83</v>
@@ -1467,7 +1495,7 @@
         <v>109</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>110</v>
@@ -1479,7 +1507,7 @@
         <v>112</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>93</v>
@@ -1587,7 +1615,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX3" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AY3" s="1" t="s">
         <v>83</v>
@@ -1667,7 +1695,7 @@
         <v>109</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>110</v>
@@ -1679,7 +1707,7 @@
         <v>112</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>93</v>
@@ -1787,7 +1815,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX4" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AY4" s="1" t="s">
         <v>83</v>
@@ -1867,7 +1895,7 @@
         <v>109</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>110</v>
@@ -1879,7 +1907,7 @@
         <v>112</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>93</v>
@@ -1987,7 +2015,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AY5" s="1" t="s">
         <v>83</v>
@@ -2067,7 +2095,7 @@
         <v>109</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>110</v>
@@ -2079,7 +2107,7 @@
         <v>112</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>93</v>
@@ -2187,7 +2215,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX6" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AY6" s="1" t="s">
         <v>83</v>
@@ -2267,7 +2295,7 @@
         <v>109</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>110</v>
@@ -2279,7 +2307,7 @@
         <v>112</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>93</v>
@@ -2387,7 +2415,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX7" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AY7" s="1" t="s">
         <v>83</v>
@@ -2467,7 +2495,7 @@
         <v>109</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>110</v>
@@ -2479,7 +2507,7 @@
         <v>112</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>93</v>
@@ -2587,7 +2615,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX8" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AY8" s="1" t="s">
         <v>83</v>
@@ -2667,7 +2695,7 @@
         <v>109</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>110</v>
@@ -2679,7 +2707,7 @@
         <v>112</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>93</v>
@@ -2787,7 +2815,7 @@
         <v>107235843586889</v>
       </c>
       <c r="AX9" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AY9" s="1" t="s">
         <v>83</v>
